--- a/Output/Tables/Table 1 - Continuous.xlsx
+++ b/Output/Tables/Table 1 - Continuous.xlsx
@@ -391,13 +391,13 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>112801</v>
+        <v>105515</v>
       </c>
       <c r="B2">
-        <v>1.250307030375026</v>
+        <v>1.248594828539386</v>
       </c>
       <c r="C2">
-        <v>1.051313739330629</v>
+        <v>1.053219653969564</v>
       </c>
       <c r="D2">
         <v>-3</v>
@@ -413,13 +413,13 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>112801</v>
+        <v>105515</v>
       </c>
       <c r="B3">
-        <v>0.3346177140801717</v>
+        <v>0.3356219394035939</v>
       </c>
       <c r="C3">
-        <v>0.1799230193921751</v>
+        <v>0.1798941629183806</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -435,13 +435,13 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>110857</v>
+        <v>105515</v>
       </c>
       <c r="B4">
-        <v>0.4657518888555269</v>
+        <v>0.4685846968271268</v>
       </c>
       <c r="C4">
-        <v>0.3392829363073365</v>
+        <v>0.3394416578462601</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -457,13 +457,13 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>112801</v>
+        <v>105515</v>
       </c>
       <c r="B5">
-        <v>0.4874700677397462</v>
+        <v>0.487260894975438</v>
       </c>
       <c r="C5">
-        <v>0.238145471930401</v>
+        <v>0.2390165141349833</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -479,13 +479,13 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>107431</v>
+        <v>105515</v>
       </c>
       <c r="B6">
-        <v>0.4987573419217917</v>
+        <v>0.4977459760855487</v>
       </c>
       <c r="C6">
-        <v>0.2982122151216778</v>
+        <v>0.2979316819095508</v>
       </c>
       <c r="D6">
         <v>0</v>
